--- a/Documentation/NotifiK app Sprint 3 140916/Registro de pruebas.xlsx
+++ b/Documentation/NotifiK app Sprint 3 140916/Registro de pruebas.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\NotifiK app Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JdRod\Documents\Notifik\Documentation\NotifiK app Sprint 3 140916\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formato pruebas" sheetId="1" r:id="rId1"/>
+    <sheet name="Captura de pantallas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
   <si>
     <t>Login</t>
   </si>
@@ -167,9 +168,6 @@
     <t>Problema de asignación. revisar código de asignación de estudiante</t>
   </si>
   <si>
-    <t>Se sale de la app</t>
-  </si>
-  <si>
     <t>dejo loggear</t>
   </si>
   <si>
@@ -183,9 +181,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Se sale de la app(Deberia regresar a fragmento inicial)</t>
   </si>
   <si>
     <t>registros duplicados</t>
@@ -253,11 +248,65 @@
   <si>
     <t>Item App drawer notificacion</t>
   </si>
+  <si>
+    <t>Se sale de la app (Pierde registro)</t>
+  </si>
+  <si>
+    <t>Entrega 2</t>
+  </si>
+  <si>
+    <t>Enviar notificación todos campos  vacios</t>
+  </si>
+  <si>
+    <t>Enivar header vacio</t>
+  </si>
+  <si>
+    <t>Enivar codigo vacio</t>
+  </si>
+  <si>
+    <t>Enivar description vacio</t>
+  </si>
+  <si>
+    <t>Enviar notificación standar</t>
+  </si>
+  <si>
+    <t>Comprobar recibido maestro</t>
+  </si>
+  <si>
+    <t>Comprabar recibido estudiante</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>Criticas</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>Culminadas</t>
+  </si>
+  <si>
+    <t>Entrega 3</t>
+  </si>
+  <si>
+    <t>Entrega 0</t>
+  </si>
+  <si>
+    <t>Tareas Criticas</t>
+  </si>
+  <si>
+    <t>Pendientes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -549,17 +598,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,7 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,6 +652,7720 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Entrega</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$C$62:$C$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$D$62:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Entrega 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$E$62:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$F$62:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$E$62:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$F$62:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$E$62:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$F$62:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$E$62:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$F$62:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Entrega 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$E$62:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$F$62:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$E$62:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$F$62:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Entrega 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$I$62:$I$64</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Criticas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En progreso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$J$62:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0%">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tareas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culminadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$C$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$D$85:$G$85</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$D$86:$G$86</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-111641616"/>
+        <c:axId val="-111639440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-111641616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111639440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-111639440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111641616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$H$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tareas Criticas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$I$85:$L$85</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$I$86:$L$86</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-111648144"/>
+        <c:axId val="-111619856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-111648144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111619856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-111619856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111648144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparativo pendientes/cumplidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$F$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Culminadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$G$121:$J$121</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$G$122:$J$122</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$F$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pendientes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Formato pruebas'!$G$121:$J$121</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Formato pruebas'!$G$123:$J$123</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-111626384"/>
+        <c:axId val="-111636176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-111626384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111636176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-111636176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111626384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>969819</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>74467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3654137</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>150667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533773</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>56219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3218091</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>132419</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474085</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3158403</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>162791</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3212521</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>167986</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517380</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>70136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3493944</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>186169</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1132176</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>106074</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1593272</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>32902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>612139</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="843643" y="571500"/>
+          <a:ext cx="3986710" cy="7077508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286073</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11444</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5347930" y="593766"/>
+          <a:ext cx="3943585" cy="6996930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502899</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300424</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9646899" y="565005"/>
+          <a:ext cx="3953889" cy="7065877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>697687</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>521474</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>135713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7365187" y="8555813"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76163</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085813" y="8562938"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259501</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83288</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>126150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13594501" y="8546250"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002501" y="8453438"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,69 +8631,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="C25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="51"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="56"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -932,9 +8719,11 @@
       <c r="F3" s="4"/>
       <c r="G3" s="30"/>
       <c r="H3" s="4"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -952,9 +8741,13 @@
         <v>45</v>
       </c>
       <c r="H4" s="5"/>
+      <c r="I4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -972,9 +8765,13 @@
         <v>45</v>
       </c>
       <c r="H5" s="5"/>
+      <c r="I5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -982,7 +8779,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>45</v>
@@ -992,9 +8789,13 @@
         <v>45</v>
       </c>
       <c r="H6" s="5"/>
+      <c r="I6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1012,9 +8813,13 @@
         <v>45</v>
       </c>
       <c r="H7" s="5"/>
+      <c r="I7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1032,9 +8837,13 @@
         <v>45</v>
       </c>
       <c r="H8" s="5"/>
+      <c r="I8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1044,9 +8853,11 @@
       <c r="F9" s="5"/>
       <c r="G9" s="32"/>
       <c r="H9" s="5"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1064,9 +8875,13 @@
         <v>45</v>
       </c>
       <c r="H10" s="5"/>
+      <c r="I10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1084,9 +8899,13 @@
         <v>45</v>
       </c>
       <c r="H11" s="5"/>
+      <c r="I11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +8913,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>45</v>
@@ -1104,9 +8923,13 @@
         <v>45</v>
       </c>
       <c r="H12" s="5"/>
+      <c r="I12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -1124,9 +8947,13 @@
         <v>45</v>
       </c>
       <c r="H13" s="5"/>
+      <c r="I13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1144,11 +8971,15 @@
         <v>45</v>
       </c>
       <c r="H14" s="5"/>
+      <c r="I14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
       <c r="B15" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6">
         <f>2/10</f>
@@ -1165,9 +8996,14 @@
         <v>1</v>
       </c>
       <c r="H15" s="22"/>
+      <c r="I15" s="33">
+        <f>10/10</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1177,15 +9013,17 @@
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="23"/>
       <c r="G16" s="30"/>
       <c r="H16" s="23"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,9 +9035,11 @@
       <c r="F17" s="2"/>
       <c r="G17" s="29"/>
       <c r="H17" s="2"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1211,9 +9051,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="29"/>
       <c r="H18" s="2"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,11 +9067,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="29"/>
       <c r="H19" s="2"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="63"/>
       <c r="B20" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7">
         <f>4/4</f>
@@ -1240,9 +9084,11 @@
       <c r="F20" s="12"/>
       <c r="G20" s="34"/>
       <c r="H20" s="12"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1252,15 +9098,17 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="23"/>
       <c r="G21" s="30"/>
       <c r="H21" s="23"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1272,11 +9120,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="29"/>
       <c r="H22" s="2"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
       <c r="B23" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <f>2/2</f>
@@ -1287,9 +9137,11 @@
       <c r="F23" s="12"/>
       <c r="G23" s="34"/>
       <c r="H23" s="12"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1309,9 +9161,13 @@
         <v>41</v>
       </c>
       <c r="H24" s="4"/>
+      <c r="I24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1327,9 +9183,13 @@
         <v>45</v>
       </c>
       <c r="H25" s="5"/>
+      <c r="I25" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,23 +9197,29 @@
         <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,9 +9235,13 @@
         <v>41</v>
       </c>
       <c r="H27" s="5"/>
+      <c r="I27" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1387,9 +9257,13 @@
         <v>41</v>
       </c>
       <c r="H28" s="5"/>
+      <c r="I28" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,11 +9279,15 @@
         <v>41</v>
       </c>
       <c r="H29" s="5"/>
+      <c r="I29" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
       <c r="B30" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="8">
         <f>5/6</f>
@@ -1424,9 +9302,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="22"/>
+      <c r="I30" s="33">
+        <v>1</v>
+      </c>
+      <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1440,9 +9322,11 @@
       <c r="F31" s="27"/>
       <c r="G31" s="35"/>
       <c r="H31" s="27"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,17 +9338,21 @@
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" s="36"/>
       <c r="H32" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="J32" s="28" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61"/>
       <c r="B33" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="9">
         <f>1/2</f>
@@ -1479,9 +9367,13 @@
         <v>0.9</v>
       </c>
       <c r="H33" s="31"/>
+      <c r="I33" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J33" s="31"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1493,9 +9385,11 @@
       <c r="F34" s="23"/>
       <c r="G34" s="30"/>
       <c r="H34" s="23"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1503,97 +9397,121 @@
         <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="60"/>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="60"/>
       <c r="B39" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="10">
         <f>1/4</f>
@@ -1610,9 +9528,18 @@
         <v>0.25</v>
       </c>
       <c r="H39" s="17"/>
+      <c r="I39" s="37">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="N39" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="58"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,9 +9549,17 @@
       <c r="F40" s="23"/>
       <c r="G40" s="30"/>
       <c r="H40" s="23"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="23"/>
+      <c r="N40" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O40" s="48" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
       <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1636,9 +9571,15 @@
       <c r="F41" s="2"/>
       <c r="G41" s="29"/>
       <c r="H41" s="2"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="2"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
@@ -1650,9 +9591,15 @@
       <c r="F42" s="2"/>
       <c r="G42" s="29"/>
       <c r="H42" s="2"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="2"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="42" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
       <c r="B43" s="1" t="s">
         <v>31</v>
       </c>
@@ -1664,9 +9611,17 @@
       <c r="F43" s="2"/>
       <c r="G43" s="29"/>
       <c r="H43" s="2"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="2"/>
+      <c r="N43" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="60"/>
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
@@ -1678,9 +9633,15 @@
       <c r="F44" s="2"/>
       <c r="G44" s="29"/>
       <c r="H44" s="2"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="2"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="44" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1692,9 +9653,17 @@
       <c r="F45" s="2"/>
       <c r="G45" s="29"/>
       <c r="H45" s="2"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="2"/>
+      <c r="N45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
@@ -1706,9 +9675,15 @@
       <c r="F46" s="2"/>
       <c r="G46" s="29"/>
       <c r="H46" s="2"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="2"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="45" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="60"/>
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
@@ -1720,9 +9695,15 @@
       <c r="F47" s="2"/>
       <c r="G47" s="29"/>
       <c r="H47" s="2"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="2"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="42" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="60"/>
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1734,9 +9715,15 @@
       <c r="F48" s="2"/>
       <c r="G48" s="29"/>
       <c r="H48" s="2"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="2"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="47" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,9 +9735,11 @@
       <c r="F49" s="2"/>
       <c r="G49" s="29"/>
       <c r="H49" s="2"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
@@ -1762,9 +9751,11 @@
       <c r="F50" s="2"/>
       <c r="G50" s="29"/>
       <c r="H50" s="2"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
@@ -1776,9 +9767,11 @@
       <c r="F51" s="2"/>
       <c r="G51" s="29"/>
       <c r="H51" s="2"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="60"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
@@ -1790,11 +9783,13 @@
       <c r="F52" s="2"/>
       <c r="G52" s="5"/>
       <c r="H52" s="2"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="60"/>
       <c r="B53" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="7">
         <f>12/12</f>
@@ -1809,90 +9804,417 @@
         <v>1</v>
       </c>
       <c r="H53" s="12"/>
+      <c r="I53" s="40">
+        <v>1</v>
+      </c>
+      <c r="J53" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="49"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="23"/>
+      <c r="I54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="23"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E63" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" s="57" t="s">
-        <v>64</v>
-      </c>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E64" s="26"/>
-      <c r="F64" s="2" t="s">
-        <v>65</v>
-      </c>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="2"/>
     </row>
-    <row r="65" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="41"/>
-      <c r="F65" s="42" t="s">
-        <v>66</v>
-      </c>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="2"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="39">
-        <f>3/7</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="C66" s="39">
-        <f>6/7</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>68</v>
-      </c>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="60"/>
+      <c r="B58" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58" s="2"/>
     </row>
-    <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="41"/>
-      <c r="F67" s="44" t="s">
-        <v>69</v>
-      </c>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" s="2"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>71</v>
-      </c>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" s="2"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="26"/>
-      <c r="F69" s="45" t="s">
-        <v>72</v>
-      </c>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="51"/>
+      <c r="B61" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="52">
+        <v>0</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="52">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="52">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="53">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12"/>
     </row>
-    <row r="70" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="41"/>
-      <c r="F70" s="42" t="s">
-        <v>73</v>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="54">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="E62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="39">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="39">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="54">
+        <f>1/8</f>
+        <v>0.125</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="39">
-        <f>3/4</f>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="54">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="39">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="39">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="39">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="54">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="39">
+        <f>6/8</f>
         <v>0.75</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47" t="s">
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="39">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="54">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="39"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="39"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" t="s">
         <v>75</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85" t="s">
+        <v>88</v>
+      </c>
+      <c r="J85" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" t="s">
+        <v>75</v>
+      </c>
+      <c r="L85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="54">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="E86" s="39">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="F86" s="39">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="G86" s="54">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="H86" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="54">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="J86" s="39">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="K86" s="39">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="L86" s="54">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>88</v>
+      </c>
+      <c r="H121" t="s">
+        <v>58</v>
+      </c>
+      <c r="I121" t="s">
+        <v>75</v>
+      </c>
+      <c r="J121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>86</v>
+      </c>
+      <c r="G122" s="54">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="H122" s="39">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="I122" s="39">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="J122" s="54">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>90</v>
+      </c>
+      <c r="G123" s="54">
+        <f>D63+D64</f>
+        <v>0.625</v>
+      </c>
+      <c r="H123" s="39">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="I123" s="39">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="J123" s="54">
+        <f>1/8</f>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="N39:O39"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A15"/>
@@ -1906,5 +10228,32 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z67" sqref="Z67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>